--- a/src/test/resources/testdata/ExelenterEmployeeList.xlsx
+++ b/src/test/resources/testdata/ExelenterEmployeeList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Demir\Desktop\TestNGProject\TestNGFramework1\src\test\java\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Demir\Desktop\TestNGProject\CucumberFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632357B-3986-4579-AB0A-E09513BC3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF795130-F2F6-48BF-957E-379B008A6312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="15375" windowHeight="11520" xr2:uid="{F6C1C8E1-52C4-4F3D-BFC5-3EECAD21D69D}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="15375" windowHeight="11520" xr2:uid="{F6C1C8E1-52C4-4F3D-BFC5-3EECAD21D69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t>William</t>
   </si>
@@ -119,13 +119,25 @@
   </si>
   <si>
     <t>tylernguyenn320</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Demir</t>
+  </si>
+  <si>
+    <t>AlexDemir_@2023</t>
+  </si>
+  <si>
+    <t>alexdemir320</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +155,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,14 +185,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173CC9CE-BE54-4A7D-8B5E-2A710E116FAF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:K1048576"/>
@@ -555,10 +578,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{1745FF56-4ECA-4D58-8622-76E8135033AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
